--- a/datasets/restriction/restrictions.xlsx
+++ b/datasets/restriction/restrictions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="373">
   <si>
     <t>Country</t>
   </si>
@@ -1052,6 +1052,9 @@
   </si>
   <si>
     <t>There is no policy at the national level, but schools across all 27 states in Brazil are registered as closed due to policies implemented by local governments: https://www.poder360.com.br/coronavirus/brasil-parado-saiba-o-que-esta-fechado-em-cada-unidade-da-federacao/?utm_source=meio&amp;utm_medium=email</t>
+  </si>
+  <si>
+    <t>No Restriction Applied</t>
   </si>
   <si>
     <t>1. Schools: Since Monday March 16, public schools in the national territory are close and face-to-face classes are not permitted. The changes in the school calendar are available in Circular No. 20 - 2020. http://www.regiones.gov.co/Inicio/assets/files/34.pdf_x000D_
@@ -1587,6 +1590,9 @@
       <c r="D3" t="s">
         <v>345</v>
       </c>
+      <c r="E3" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
@@ -1598,8 +1604,11 @@
       <c r="C4" s="3">
         <v>43921</v>
       </c>
+      <c r="D4" t="s">
+        <v>346</v>
+      </c>
       <c r="E4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1612,6 +1621,12 @@
       <c r="C5" s="3">
         <v>43920</v>
       </c>
+      <c r="D5" t="s">
+        <v>346</v>
+      </c>
+      <c r="E5" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
@@ -1623,6 +1638,12 @@
       <c r="C6" s="3">
         <v>43920</v>
       </c>
+      <c r="D6" t="s">
+        <v>346</v>
+      </c>
+      <c r="E6" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
@@ -1634,6 +1655,12 @@
       <c r="C7" s="3">
         <v>43921</v>
       </c>
+      <c r="D7" t="s">
+        <v>346</v>
+      </c>
+      <c r="E7" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
@@ -1646,10 +1673,10 @@
         <v>43921</v>
       </c>
       <c r="D8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E8" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1662,6 +1689,12 @@
       <c r="C9" s="3">
         <v>43920</v>
       </c>
+      <c r="D9" t="s">
+        <v>346</v>
+      </c>
+      <c r="E9" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
@@ -1673,8 +1706,11 @@
       <c r="C10" s="3">
         <v>43921</v>
       </c>
+      <c r="D10" t="s">
+        <v>346</v>
+      </c>
       <c r="E10" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1687,6 +1723,12 @@
       <c r="C11" s="3">
         <v>43921</v>
       </c>
+      <c r="D11" t="s">
+        <v>346</v>
+      </c>
+      <c r="E11" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
@@ -1698,6 +1740,12 @@
       <c r="C12" s="3">
         <v>43920</v>
       </c>
+      <c r="D12" t="s">
+        <v>346</v>
+      </c>
+      <c r="E12" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
@@ -1709,8 +1757,11 @@
       <c r="C13" s="3">
         <v>43920</v>
       </c>
+      <c r="D13" t="s">
+        <v>346</v>
+      </c>
       <c r="E13" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1723,6 +1774,12 @@
       <c r="C14" s="3">
         <v>43920</v>
       </c>
+      <c r="D14" t="s">
+        <v>346</v>
+      </c>
+      <c r="E14" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
@@ -1734,6 +1791,12 @@
       <c r="C15" s="3">
         <v>43920</v>
       </c>
+      <c r="D15" t="s">
+        <v>346</v>
+      </c>
+      <c r="E15" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
@@ -1745,6 +1808,12 @@
       <c r="C16" s="3">
         <v>43920</v>
       </c>
+      <c r="D16" t="s">
+        <v>346</v>
+      </c>
+      <c r="E16" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
@@ -1757,10 +1826,10 @@
         <v>43921</v>
       </c>
       <c r="D17" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E17" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1773,6 +1842,12 @@
       <c r="C18" s="3">
         <v>43920</v>
       </c>
+      <c r="D18" t="s">
+        <v>346</v>
+      </c>
+      <c r="E18" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
@@ -1784,6 +1859,12 @@
       <c r="C19" s="3">
         <v>43920</v>
       </c>
+      <c r="D19" t="s">
+        <v>346</v>
+      </c>
+      <c r="E19" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
@@ -1795,6 +1876,12 @@
       <c r="C20" s="3">
         <v>43921</v>
       </c>
+      <c r="D20" t="s">
+        <v>346</v>
+      </c>
+      <c r="E20" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
@@ -1806,6 +1893,12 @@
       <c r="C21" s="3">
         <v>43920</v>
       </c>
+      <c r="D21" t="s">
+        <v>346</v>
+      </c>
+      <c r="E21" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
@@ -1817,6 +1910,12 @@
       <c r="C22" s="3">
         <v>43920</v>
       </c>
+      <c r="D22" t="s">
+        <v>346</v>
+      </c>
+      <c r="E22" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
@@ -1828,8 +1927,11 @@
       <c r="C23" s="3">
         <v>43920</v>
       </c>
+      <c r="D23" t="s">
+        <v>346</v>
+      </c>
       <c r="E23" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1843,7 +1945,10 @@
         <v>43921</v>
       </c>
       <c r="D24" t="s">
-        <v>348</v>
+        <v>349</v>
+      </c>
+      <c r="E24" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1856,6 +1961,12 @@
       <c r="C25" s="3">
         <v>43920</v>
       </c>
+      <c r="D25" t="s">
+        <v>346</v>
+      </c>
+      <c r="E25" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
@@ -1867,6 +1978,12 @@
       <c r="C26" s="3">
         <v>43920</v>
       </c>
+      <c r="D26" t="s">
+        <v>346</v>
+      </c>
+      <c r="E26" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
@@ -1878,6 +1995,12 @@
       <c r="C27" s="3">
         <v>43921</v>
       </c>
+      <c r="D27" t="s">
+        <v>346</v>
+      </c>
+      <c r="E27" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
@@ -1889,6 +2012,12 @@
       <c r="C28" s="3">
         <v>43920</v>
       </c>
+      <c r="D28" t="s">
+        <v>346</v>
+      </c>
+      <c r="E28" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
@@ -1900,6 +2029,12 @@
       <c r="C29" s="3">
         <v>43920</v>
       </c>
+      <c r="D29" t="s">
+        <v>346</v>
+      </c>
+      <c r="E29" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
@@ -1911,6 +2046,12 @@
       <c r="C30" s="3">
         <v>43921</v>
       </c>
+      <c r="D30" t="s">
+        <v>346</v>
+      </c>
+      <c r="E30" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
@@ -1922,6 +2063,12 @@
       <c r="C31" s="3">
         <v>43920</v>
       </c>
+      <c r="D31" t="s">
+        <v>346</v>
+      </c>
+      <c r="E31" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
@@ -1933,6 +2080,12 @@
       <c r="C32" s="3">
         <v>43921</v>
       </c>
+      <c r="D32" t="s">
+        <v>346</v>
+      </c>
+      <c r="E32" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
@@ -1944,6 +2097,12 @@
       <c r="C33" s="3">
         <v>43921</v>
       </c>
+      <c r="D33" t="s">
+        <v>346</v>
+      </c>
+      <c r="E33" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
@@ -1956,10 +2115,10 @@
         <v>43920</v>
       </c>
       <c r="D34" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E34" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1972,6 +2131,12 @@
       <c r="C35" s="3">
         <v>43921</v>
       </c>
+      <c r="D35" t="s">
+        <v>346</v>
+      </c>
+      <c r="E35" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
@@ -1983,6 +2148,12 @@
       <c r="C36" s="3">
         <v>43920</v>
       </c>
+      <c r="D36" t="s">
+        <v>346</v>
+      </c>
+      <c r="E36" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
@@ -1994,6 +2165,12 @@
       <c r="C37" s="3">
         <v>43920</v>
       </c>
+      <c r="D37" t="s">
+        <v>346</v>
+      </c>
+      <c r="E37" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
@@ -2005,6 +2182,12 @@
       <c r="C38" s="3">
         <v>43921</v>
       </c>
+      <c r="D38" t="s">
+        <v>346</v>
+      </c>
+      <c r="E38" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
@@ -2016,6 +2199,12 @@
       <c r="C39" s="3">
         <v>43920</v>
       </c>
+      <c r="D39" t="s">
+        <v>346</v>
+      </c>
+      <c r="E39" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
@@ -2027,6 +2216,12 @@
       <c r="C40" s="3">
         <v>43920</v>
       </c>
+      <c r="D40" t="s">
+        <v>346</v>
+      </c>
+      <c r="E40" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
@@ -2038,6 +2233,12 @@
       <c r="C41" s="3">
         <v>43920</v>
       </c>
+      <c r="D41" t="s">
+        <v>346</v>
+      </c>
+      <c r="E41" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
@@ -2049,6 +2250,12 @@
       <c r="C42" s="3">
         <v>43920</v>
       </c>
+      <c r="D42" t="s">
+        <v>346</v>
+      </c>
+      <c r="E42" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
@@ -2060,6 +2267,12 @@
       <c r="C43" s="3">
         <v>43920</v>
       </c>
+      <c r="D43" t="s">
+        <v>346</v>
+      </c>
+      <c r="E43" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
@@ -2071,6 +2284,12 @@
       <c r="C44" s="3">
         <v>43921</v>
       </c>
+      <c r="D44" t="s">
+        <v>346</v>
+      </c>
+      <c r="E44" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
@@ -2082,6 +2301,12 @@
       <c r="C45" s="3">
         <v>43921</v>
       </c>
+      <c r="D45" t="s">
+        <v>346</v>
+      </c>
+      <c r="E45" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
@@ -2093,6 +2318,12 @@
       <c r="C46" s="3">
         <v>43920</v>
       </c>
+      <c r="D46" t="s">
+        <v>346</v>
+      </c>
+      <c r="E46" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
@@ -2104,6 +2335,12 @@
       <c r="C47" s="3">
         <v>43920</v>
       </c>
+      <c r="D47" t="s">
+        <v>346</v>
+      </c>
+      <c r="E47" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
@@ -2115,8 +2352,14 @@
       <c r="C48" s="3">
         <v>43920</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" t="s">
+        <v>346</v>
+      </c>
+      <c r="E48" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -2126,8 +2369,14 @@
       <c r="C49" s="3">
         <v>43921</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" t="s">
+        <v>346</v>
+      </c>
+      <c r="E49" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -2137,8 +2386,14 @@
       <c r="C50" s="3">
         <v>43920</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" t="s">
+        <v>346</v>
+      </c>
+      <c r="E50" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -2148,8 +2403,14 @@
       <c r="C51" s="3">
         <v>43920</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" t="s">
+        <v>346</v>
+      </c>
+      <c r="E51" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -2159,8 +2420,14 @@
       <c r="C52" s="3">
         <v>43920</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52" t="s">
+        <v>346</v>
+      </c>
+      <c r="E52" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -2170,8 +2437,14 @@
       <c r="C53" s="3">
         <v>43920</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53" t="s">
+        <v>346</v>
+      </c>
+      <c r="E53" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -2181,8 +2454,14 @@
       <c r="C54" s="3">
         <v>43920</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54" t="s">
+        <v>346</v>
+      </c>
+      <c r="E54" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -2192,8 +2471,14 @@
       <c r="C55" s="3">
         <v>43920</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55" t="s">
+        <v>346</v>
+      </c>
+      <c r="E55" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -2203,8 +2488,14 @@
       <c r="C56" s="3">
         <v>43921</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56" t="s">
+        <v>346</v>
+      </c>
+      <c r="E56" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -2214,8 +2505,14 @@
       <c r="C57" s="3">
         <v>43920</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57" t="s">
+        <v>346</v>
+      </c>
+      <c r="E57" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -2225,8 +2522,14 @@
       <c r="C58" s="3">
         <v>43921</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58" t="s">
+        <v>346</v>
+      </c>
+      <c r="E58" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -2236,8 +2539,14 @@
       <c r="C59" s="3">
         <v>43920</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59" t="s">
+        <v>346</v>
+      </c>
+      <c r="E59" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -2247,8 +2556,14 @@
       <c r="C60" s="3">
         <v>43920</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60" t="s">
+        <v>346</v>
+      </c>
+      <c r="E60" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -2258,8 +2573,14 @@
       <c r="C61" s="3">
         <v>43921</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61" t="s">
+        <v>346</v>
+      </c>
+      <c r="E61" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -2269,8 +2590,14 @@
       <c r="C62" s="3">
         <v>43921</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62" t="s">
+        <v>346</v>
+      </c>
+      <c r="E62" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -2280,8 +2607,14 @@
       <c r="C63" s="3">
         <v>43920</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63" t="s">
+        <v>346</v>
+      </c>
+      <c r="E63" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -2290,6 +2623,12 @@
       </c>
       <c r="C64" s="3">
         <v>43920</v>
+      </c>
+      <c r="D64" t="s">
+        <v>346</v>
+      </c>
+      <c r="E64" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2303,10 +2642,10 @@
         <v>43921</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E65" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2319,6 +2658,12 @@
       <c r="C66" s="3">
         <v>43920</v>
       </c>
+      <c r="D66" t="s">
+        <v>346</v>
+      </c>
+      <c r="E66" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
@@ -2330,6 +2675,12 @@
       <c r="C67" s="3">
         <v>43920</v>
       </c>
+      <c r="D67" t="s">
+        <v>346</v>
+      </c>
+      <c r="E67" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
@@ -2341,6 +2692,12 @@
       <c r="C68" s="3">
         <v>43920</v>
       </c>
+      <c r="D68" t="s">
+        <v>346</v>
+      </c>
+      <c r="E68" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
@@ -2352,6 +2709,12 @@
       <c r="C69" s="3">
         <v>43920</v>
       </c>
+      <c r="D69" t="s">
+        <v>346</v>
+      </c>
+      <c r="E69" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
@@ -2363,6 +2726,12 @@
       <c r="C70" s="3">
         <v>43920</v>
       </c>
+      <c r="D70" t="s">
+        <v>346</v>
+      </c>
+      <c r="E70" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
@@ -2374,6 +2743,12 @@
       <c r="C71" s="3">
         <v>43920</v>
       </c>
+      <c r="D71" t="s">
+        <v>346</v>
+      </c>
+      <c r="E71" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
@@ -2385,6 +2760,12 @@
       <c r="C72" s="3">
         <v>43920</v>
       </c>
+      <c r="D72" t="s">
+        <v>346</v>
+      </c>
+      <c r="E72" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
@@ -2396,6 +2777,12 @@
       <c r="C73" s="3">
         <v>43920</v>
       </c>
+      <c r="D73" t="s">
+        <v>346</v>
+      </c>
+      <c r="E73" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
@@ -2407,6 +2794,12 @@
       <c r="C74" s="3">
         <v>43920</v>
       </c>
+      <c r="D74" t="s">
+        <v>346</v>
+      </c>
+      <c r="E74" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
@@ -2419,10 +2812,10 @@
         <v>43920</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2435,6 +2828,12 @@
       <c r="C76" s="3">
         <v>43920</v>
       </c>
+      <c r="D76" t="s">
+        <v>346</v>
+      </c>
+      <c r="E76" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
@@ -2446,6 +2845,12 @@
       <c r="C77" s="3">
         <v>43920</v>
       </c>
+      <c r="D77" t="s">
+        <v>346</v>
+      </c>
+      <c r="E77" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
@@ -2457,6 +2862,12 @@
       <c r="C78" s="3">
         <v>43920</v>
       </c>
+      <c r="D78" t="s">
+        <v>346</v>
+      </c>
+      <c r="E78" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
@@ -2468,6 +2879,12 @@
       <c r="C79" s="3">
         <v>43921</v>
       </c>
+      <c r="D79" t="s">
+        <v>346</v>
+      </c>
+      <c r="E79" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
@@ -2479,6 +2896,12 @@
       <c r="C80" s="3">
         <v>43920</v>
       </c>
+      <c r="D80" t="s">
+        <v>346</v>
+      </c>
+      <c r="E80" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
@@ -2490,6 +2913,12 @@
       <c r="C81" s="3">
         <v>43920</v>
       </c>
+      <c r="D81" t="s">
+        <v>346</v>
+      </c>
+      <c r="E81" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
@@ -2502,10 +2931,10 @@
         <v>43920</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E82" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2518,6 +2947,12 @@
       <c r="C83" s="3">
         <v>43920</v>
       </c>
+      <c r="D83" t="s">
+        <v>346</v>
+      </c>
+      <c r="E83" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
@@ -2530,7 +2965,10 @@
         <v>43920</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
+      </c>
+      <c r="E84" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2543,6 +2981,12 @@
       <c r="C85" s="3">
         <v>43920</v>
       </c>
+      <c r="D85" t="s">
+        <v>346</v>
+      </c>
+      <c r="E85" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
@@ -2554,6 +2998,12 @@
       <c r="C86" s="3">
         <v>43920</v>
       </c>
+      <c r="D86" t="s">
+        <v>346</v>
+      </c>
+      <c r="E86" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
@@ -2565,6 +3015,12 @@
       <c r="C87" s="3">
         <v>43920</v>
       </c>
+      <c r="D87" t="s">
+        <v>346</v>
+      </c>
+      <c r="E87" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
@@ -2576,6 +3032,12 @@
       <c r="C88" s="3">
         <v>43920</v>
       </c>
+      <c r="D88" t="s">
+        <v>346</v>
+      </c>
+      <c r="E88" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
@@ -2587,6 +3049,12 @@
       <c r="C89" s="3">
         <v>43920</v>
       </c>
+      <c r="D89" t="s">
+        <v>346</v>
+      </c>
+      <c r="E89" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
@@ -2598,6 +3066,12 @@
       <c r="C90" s="3">
         <v>43920</v>
       </c>
+      <c r="D90" t="s">
+        <v>346</v>
+      </c>
+      <c r="E90" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
@@ -2609,6 +3083,12 @@
       <c r="C91" s="3">
         <v>43920</v>
       </c>
+      <c r="D91" t="s">
+        <v>346</v>
+      </c>
+      <c r="E91" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
@@ -2620,6 +3100,12 @@
       <c r="C92" s="3">
         <v>43920</v>
       </c>
+      <c r="D92" t="s">
+        <v>346</v>
+      </c>
+      <c r="E92" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
@@ -2631,6 +3117,12 @@
       <c r="C93" s="3">
         <v>43920</v>
       </c>
+      <c r="D93" t="s">
+        <v>346</v>
+      </c>
+      <c r="E93" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
@@ -2642,6 +3134,12 @@
       <c r="C94" s="3">
         <v>43920</v>
       </c>
+      <c r="D94" t="s">
+        <v>346</v>
+      </c>
+      <c r="E94" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
@@ -2654,10 +3152,10 @@
         <v>43920</v>
       </c>
       <c r="D95" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E95" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2670,6 +3168,12 @@
       <c r="C96" s="3">
         <v>43920</v>
       </c>
+      <c r="D96" t="s">
+        <v>346</v>
+      </c>
+      <c r="E96" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
@@ -2681,6 +3185,12 @@
       <c r="C97" s="3">
         <v>43920</v>
       </c>
+      <c r="D97" t="s">
+        <v>346</v>
+      </c>
+      <c r="E97" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
@@ -2692,6 +3202,12 @@
       <c r="C98" s="3">
         <v>43919</v>
       </c>
+      <c r="D98" t="s">
+        <v>346</v>
+      </c>
+      <c r="E98" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
@@ -2704,7 +3220,10 @@
         <v>43920</v>
       </c>
       <c r="D99" t="s">
-        <v>354</v>
+        <v>355</v>
+      </c>
+      <c r="E99" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2717,6 +3236,12 @@
       <c r="C100" s="3">
         <v>43920</v>
       </c>
+      <c r="D100" t="s">
+        <v>346</v>
+      </c>
+      <c r="E100" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
@@ -2728,8 +3253,11 @@
       <c r="C101" s="3">
         <v>43920</v>
       </c>
+      <c r="D101" t="s">
+        <v>346</v>
+      </c>
       <c r="E101" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2742,6 +3270,12 @@
       <c r="C102" s="3">
         <v>43920</v>
       </c>
+      <c r="D102" t="s">
+        <v>346</v>
+      </c>
+      <c r="E102" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
@@ -2753,6 +3287,12 @@
       <c r="C103" s="3">
         <v>43920</v>
       </c>
+      <c r="D103" t="s">
+        <v>346</v>
+      </c>
+      <c r="E103" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
@@ -2764,6 +3304,12 @@
       <c r="C104" s="3">
         <v>43920</v>
       </c>
+      <c r="D104" t="s">
+        <v>346</v>
+      </c>
+      <c r="E104" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
@@ -2775,6 +3321,12 @@
       <c r="C105" s="3">
         <v>43920</v>
       </c>
+      <c r="D105" t="s">
+        <v>346</v>
+      </c>
+      <c r="E105" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
@@ -2787,10 +3339,10 @@
         <v>43921</v>
       </c>
       <c r="D106" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E106" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2803,6 +3355,12 @@
       <c r="C107" s="3">
         <v>43920</v>
       </c>
+      <c r="D107" t="s">
+        <v>346</v>
+      </c>
+      <c r="E107" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
@@ -2814,6 +3372,12 @@
       <c r="C108" s="3">
         <v>43920</v>
       </c>
+      <c r="D108" t="s">
+        <v>346</v>
+      </c>
+      <c r="E108" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
@@ -2825,6 +3389,12 @@
       <c r="C109" s="3">
         <v>43920</v>
       </c>
+      <c r="D109" t="s">
+        <v>346</v>
+      </c>
+      <c r="E109" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
@@ -2836,8 +3406,11 @@
       <c r="C110" s="3">
         <v>43920</v>
       </c>
+      <c r="D110" t="s">
+        <v>346</v>
+      </c>
       <c r="E110" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2850,6 +3423,12 @@
       <c r="C111" s="3">
         <v>43920</v>
       </c>
+      <c r="D111" t="s">
+        <v>346</v>
+      </c>
+      <c r="E111" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
@@ -2861,6 +3440,12 @@
       <c r="C112" s="3">
         <v>43920</v>
       </c>
+      <c r="D112" t="s">
+        <v>346</v>
+      </c>
+      <c r="E112" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
@@ -2872,6 +3457,12 @@
       <c r="C113" s="3">
         <v>43920</v>
       </c>
+      <c r="D113" t="s">
+        <v>346</v>
+      </c>
+      <c r="E113" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
@@ -2883,6 +3474,12 @@
       <c r="C114" s="3">
         <v>43920</v>
       </c>
+      <c r="D114" t="s">
+        <v>346</v>
+      </c>
+      <c r="E114" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
@@ -2894,6 +3491,12 @@
       <c r="C115" s="3">
         <v>43921</v>
       </c>
+      <c r="D115" t="s">
+        <v>346</v>
+      </c>
+      <c r="E115" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
@@ -2905,6 +3508,12 @@
       <c r="C116" s="3">
         <v>43920</v>
       </c>
+      <c r="D116" t="s">
+        <v>346</v>
+      </c>
+      <c r="E116" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
@@ -2916,6 +3525,12 @@
       <c r="C117" s="3">
         <v>43920</v>
       </c>
+      <c r="D117" t="s">
+        <v>346</v>
+      </c>
+      <c r="E117" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
@@ -2927,6 +3542,12 @@
       <c r="C118" s="3">
         <v>43920</v>
       </c>
+      <c r="D118" t="s">
+        <v>346</v>
+      </c>
+      <c r="E118" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
@@ -2938,6 +3559,12 @@
       <c r="C119" s="3">
         <v>43920</v>
       </c>
+      <c r="D119" t="s">
+        <v>346</v>
+      </c>
+      <c r="E119" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
@@ -2949,6 +3576,12 @@
       <c r="C120" s="3">
         <v>43920</v>
       </c>
+      <c r="D120" t="s">
+        <v>346</v>
+      </c>
+      <c r="E120" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
@@ -2961,10 +3594,10 @@
         <v>43920</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2977,6 +3610,12 @@
       <c r="C122" s="3">
         <v>43920</v>
       </c>
+      <c r="D122" t="s">
+        <v>346</v>
+      </c>
+      <c r="E122" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
@@ -2988,6 +3627,12 @@
       <c r="C123" s="3">
         <v>43920</v>
       </c>
+      <c r="D123" t="s">
+        <v>346</v>
+      </c>
+      <c r="E123" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
@@ -2999,6 +3644,12 @@
       <c r="C124" s="3">
         <v>43920</v>
       </c>
+      <c r="D124" t="s">
+        <v>346</v>
+      </c>
+      <c r="E124" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
@@ -3010,6 +3661,12 @@
       <c r="C125" s="3">
         <v>43920</v>
       </c>
+      <c r="D125" t="s">
+        <v>346</v>
+      </c>
+      <c r="E125" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
@@ -3021,6 +3678,12 @@
       <c r="C126" s="3">
         <v>43920</v>
       </c>
+      <c r="D126" t="s">
+        <v>346</v>
+      </c>
+      <c r="E126" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
@@ -3032,6 +3695,12 @@
       <c r="C127" s="3">
         <v>43920</v>
       </c>
+      <c r="D127" t="s">
+        <v>346</v>
+      </c>
+      <c r="E127" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
@@ -3043,8 +3712,14 @@
       <c r="C128" s="3">
         <v>43920</v>
       </c>
-    </row>
-    <row r="129" spans="1:3">
+      <c r="D128" t="s">
+        <v>346</v>
+      </c>
+      <c r="E128" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129" t="s">
         <v>132</v>
       </c>
@@ -3054,8 +3729,14 @@
       <c r="C129" s="3">
         <v>43920</v>
       </c>
-    </row>
-    <row r="130" spans="1:3">
+      <c r="D129" t="s">
+        <v>346</v>
+      </c>
+      <c r="E129" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130" t="s">
         <v>133</v>
       </c>
@@ -3065,8 +3746,14 @@
       <c r="C130" s="3">
         <v>43920</v>
       </c>
-    </row>
-    <row r="131" spans="1:3">
+      <c r="D130" t="s">
+        <v>346</v>
+      </c>
+      <c r="E130" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131" t="s">
         <v>134</v>
       </c>
@@ -3076,8 +3763,14 @@
       <c r="C131" s="3">
         <v>43920</v>
       </c>
-    </row>
-    <row r="132" spans="1:3">
+      <c r="D131" t="s">
+        <v>346</v>
+      </c>
+      <c r="E131" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
       <c r="A132" t="s">
         <v>135</v>
       </c>
@@ -3087,8 +3780,14 @@
       <c r="C132" s="3">
         <v>43920</v>
       </c>
-    </row>
-    <row r="133" spans="1:3">
+      <c r="D132" t="s">
+        <v>346</v>
+      </c>
+      <c r="E132" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133" t="s">
         <v>136</v>
       </c>
@@ -3098,8 +3797,14 @@
       <c r="C133" s="3">
         <v>43920</v>
       </c>
-    </row>
-    <row r="134" spans="1:3">
+      <c r="D133" t="s">
+        <v>346</v>
+      </c>
+      <c r="E133" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
       <c r="A134" t="s">
         <v>137</v>
       </c>
@@ -3109,8 +3814,14 @@
       <c r="C134" s="3">
         <v>43920</v>
       </c>
-    </row>
-    <row r="135" spans="1:3">
+      <c r="D134" t="s">
+        <v>346</v>
+      </c>
+      <c r="E134" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135" t="s">
         <v>138</v>
       </c>
@@ -3120,8 +3831,14 @@
       <c r="C135" s="3">
         <v>43920</v>
       </c>
-    </row>
-    <row r="136" spans="1:3">
+      <c r="D135" t="s">
+        <v>346</v>
+      </c>
+      <c r="E135" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136" t="s">
         <v>139</v>
       </c>
@@ -3131,8 +3848,14 @@
       <c r="C136" s="3">
         <v>43918</v>
       </c>
-    </row>
-    <row r="137" spans="1:3">
+      <c r="D136" t="s">
+        <v>346</v>
+      </c>
+      <c r="E136" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
       <c r="A137" t="s">
         <v>140</v>
       </c>
@@ -3142,8 +3865,14 @@
       <c r="C137" s="3">
         <v>43920</v>
       </c>
-    </row>
-    <row r="138" spans="1:3">
+      <c r="D137" t="s">
+        <v>346</v>
+      </c>
+      <c r="E137" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138" t="s">
         <v>141</v>
       </c>
@@ -3153,8 +3882,14 @@
       <c r="C138" s="3">
         <v>43921</v>
       </c>
-    </row>
-    <row r="139" spans="1:3">
+      <c r="D138" t="s">
+        <v>346</v>
+      </c>
+      <c r="E138" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139" t="s">
         <v>142</v>
       </c>
@@ -3164,8 +3899,14 @@
       <c r="C139" s="3">
         <v>43920</v>
       </c>
-    </row>
-    <row r="140" spans="1:3">
+      <c r="D139" t="s">
+        <v>346</v>
+      </c>
+      <c r="E139" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
       <c r="A140" t="s">
         <v>143</v>
       </c>
@@ -3175,8 +3916,14 @@
       <c r="C140" s="3">
         <v>43920</v>
       </c>
-    </row>
-    <row r="141" spans="1:3">
+      <c r="D140" t="s">
+        <v>346</v>
+      </c>
+      <c r="E140" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
       <c r="A141" t="s">
         <v>144</v>
       </c>
@@ -3186,8 +3933,14 @@
       <c r="C141" s="3">
         <v>43920</v>
       </c>
-    </row>
-    <row r="142" spans="1:3">
+      <c r="D141" t="s">
+        <v>346</v>
+      </c>
+      <c r="E141" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
       <c r="A142" t="s">
         <v>145</v>
       </c>
@@ -3197,8 +3950,14 @@
       <c r="C142" s="3">
         <v>43920</v>
       </c>
-    </row>
-    <row r="143" spans="1:3">
+      <c r="D142" t="s">
+        <v>346</v>
+      </c>
+      <c r="E142" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
       <c r="A143" t="s">
         <v>146</v>
       </c>
@@ -3208,8 +3967,14 @@
       <c r="C143" s="3">
         <v>43920</v>
       </c>
-    </row>
-    <row r="144" spans="1:3">
+      <c r="D143" t="s">
+        <v>346</v>
+      </c>
+      <c r="E143" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
       <c r="A144" t="s">
         <v>147</v>
       </c>
@@ -3219,8 +3984,14 @@
       <c r="C144" s="3">
         <v>43920</v>
       </c>
-    </row>
-    <row r="145" spans="1:3">
+      <c r="D144" t="s">
+        <v>346</v>
+      </c>
+      <c r="E144" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
       <c r="A145" t="s">
         <v>148</v>
       </c>
@@ -3230,8 +4001,14 @@
       <c r="C145" s="3">
         <v>43917</v>
       </c>
-    </row>
-    <row r="146" spans="1:3">
+      <c r="D145" t="s">
+        <v>346</v>
+      </c>
+      <c r="E145" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
       <c r="A146" t="s">
         <v>149</v>
       </c>
@@ -3241,8 +4018,14 @@
       <c r="C146" s="3">
         <v>43920</v>
       </c>
-    </row>
-    <row r="147" spans="1:3">
+      <c r="D146" t="s">
+        <v>346</v>
+      </c>
+      <c r="E146" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
       <c r="A147" t="s">
         <v>150</v>
       </c>
@@ -3252,8 +4035,14 @@
       <c r="C147" s="3">
         <v>43920</v>
       </c>
-    </row>
-    <row r="148" spans="1:3">
+      <c r="D147" t="s">
+        <v>346</v>
+      </c>
+      <c r="E147" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
       <c r="A148" t="s">
         <v>151</v>
       </c>
@@ -3263,8 +4052,14 @@
       <c r="C148" s="3">
         <v>43920</v>
       </c>
-    </row>
-    <row r="149" spans="1:3">
+      <c r="D148" t="s">
+        <v>346</v>
+      </c>
+      <c r="E148" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149" t="s">
         <v>152</v>
       </c>
@@ -3274,8 +4069,14 @@
       <c r="C149" s="3">
         <v>43920</v>
       </c>
-    </row>
-    <row r="150" spans="1:3">
+      <c r="D149" t="s">
+        <v>346</v>
+      </c>
+      <c r="E149" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
       <c r="A150" t="s">
         <v>153</v>
       </c>
@@ -3285,8 +4086,14 @@
       <c r="C150" s="3">
         <v>43920</v>
       </c>
-    </row>
-    <row r="151" spans="1:3">
+      <c r="D150" t="s">
+        <v>346</v>
+      </c>
+      <c r="E150" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
       <c r="A151" t="s">
         <v>154</v>
       </c>
@@ -3296,8 +4103,14 @@
       <c r="C151" s="3">
         <v>43920</v>
       </c>
-    </row>
-    <row r="152" spans="1:3">
+      <c r="D151" t="s">
+        <v>346</v>
+      </c>
+      <c r="E151" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
       <c r="A152" t="s">
         <v>155</v>
       </c>
@@ -3307,8 +4120,14 @@
       <c r="C152" s="3">
         <v>43920</v>
       </c>
-    </row>
-    <row r="153" spans="1:3">
+      <c r="D152" t="s">
+        <v>346</v>
+      </c>
+      <c r="E152" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
       <c r="A153" t="s">
         <v>156</v>
       </c>
@@ -3318,8 +4137,14 @@
       <c r="C153" s="3">
         <v>43920</v>
       </c>
-    </row>
-    <row r="154" spans="1:3">
+      <c r="D153" t="s">
+        <v>346</v>
+      </c>
+      <c r="E153" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
       <c r="A154" t="s">
         <v>157</v>
       </c>
@@ -3329,8 +4154,14 @@
       <c r="C154" s="3">
         <v>43920</v>
       </c>
-    </row>
-    <row r="155" spans="1:3">
+      <c r="D154" t="s">
+        <v>346</v>
+      </c>
+      <c r="E154" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
       <c r="A155" t="s">
         <v>158</v>
       </c>
@@ -3340,8 +4171,14 @@
       <c r="C155" s="3">
         <v>43920</v>
       </c>
-    </row>
-    <row r="156" spans="1:3">
+      <c r="D155" t="s">
+        <v>346</v>
+      </c>
+      <c r="E155" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
       <c r="A156" t="s">
         <v>159</v>
       </c>
@@ -3351,8 +4188,14 @@
       <c r="C156" s="3">
         <v>43920</v>
       </c>
-    </row>
-    <row r="157" spans="1:3">
+      <c r="D156" t="s">
+        <v>346</v>
+      </c>
+      <c r="E156" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
       <c r="A157" t="s">
         <v>160</v>
       </c>
@@ -3362,8 +4205,14 @@
       <c r="C157" s="3">
         <v>43920</v>
       </c>
-    </row>
-    <row r="158" spans="1:3">
+      <c r="D157" t="s">
+        <v>346</v>
+      </c>
+      <c r="E157" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
       <c r="A158" t="s">
         <v>161</v>
       </c>
@@ -3373,8 +4222,14 @@
       <c r="C158" s="3">
         <v>43921</v>
       </c>
-    </row>
-    <row r="159" spans="1:3">
+      <c r="D158" t="s">
+        <v>346</v>
+      </c>
+      <c r="E158" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
       <c r="A159" t="s">
         <v>162</v>
       </c>
@@ -3384,8 +4239,14 @@
       <c r="C159" s="3">
         <v>43920</v>
       </c>
-    </row>
-    <row r="160" spans="1:3">
+      <c r="D159" t="s">
+        <v>346</v>
+      </c>
+      <c r="E159" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
       <c r="A160" t="s">
         <v>163</v>
       </c>
@@ -3395,8 +4256,14 @@
       <c r="C160" s="3">
         <v>43920</v>
       </c>
-    </row>
-    <row r="161" spans="1:3">
+      <c r="D160" t="s">
+        <v>346</v>
+      </c>
+      <c r="E160" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
       <c r="A161" t="s">
         <v>164</v>
       </c>
@@ -3406,8 +4273,14 @@
       <c r="C161" s="3">
         <v>43920</v>
       </c>
-    </row>
-    <row r="162" spans="1:3">
+      <c r="D161" t="s">
+        <v>346</v>
+      </c>
+      <c r="E161" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
       <c r="A162" t="s">
         <v>165</v>
       </c>
@@ -3417,8 +4290,14 @@
       <c r="C162" s="3">
         <v>43920</v>
       </c>
-    </row>
-    <row r="163" spans="1:3">
+      <c r="D162" t="s">
+        <v>346</v>
+      </c>
+      <c r="E162" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
       <c r="A163" t="s">
         <v>166</v>
       </c>
@@ -3428,8 +4307,14 @@
       <c r="C163" s="3">
         <v>43920</v>
       </c>
-    </row>
-    <row r="164" spans="1:3">
+      <c r="D163" t="s">
+        <v>346</v>
+      </c>
+      <c r="E163" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
       <c r="A164" t="s">
         <v>167</v>
       </c>
@@ -3439,8 +4324,14 @@
       <c r="C164" s="3">
         <v>43920</v>
       </c>
-    </row>
-    <row r="165" spans="1:3">
+      <c r="D164" t="s">
+        <v>346</v>
+      </c>
+      <c r="E164" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
       <c r="A165" t="s">
         <v>168</v>
       </c>
@@ -3450,8 +4341,14 @@
       <c r="C165" s="3">
         <v>43920</v>
       </c>
-    </row>
-    <row r="166" spans="1:3">
+      <c r="D165" t="s">
+        <v>346</v>
+      </c>
+      <c r="E165" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
       <c r="A166" t="s">
         <v>169</v>
       </c>
@@ -3461,8 +4358,14 @@
       <c r="C166" s="3">
         <v>43920</v>
       </c>
-    </row>
-    <row r="167" spans="1:3">
+      <c r="D166" t="s">
+        <v>346</v>
+      </c>
+      <c r="E166" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
       <c r="A167" t="s">
         <v>170</v>
       </c>
@@ -3472,8 +4375,14 @@
       <c r="C167" s="3">
         <v>43920</v>
       </c>
-    </row>
-    <row r="168" spans="1:3">
+      <c r="D167" t="s">
+        <v>346</v>
+      </c>
+      <c r="E167" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
       <c r="A168" t="s">
         <v>171</v>
       </c>
@@ -3483,8 +4392,14 @@
       <c r="C168" s="3">
         <v>43920</v>
       </c>
-    </row>
-    <row r="169" spans="1:3">
+      <c r="D168" t="s">
+        <v>346</v>
+      </c>
+      <c r="E168" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
       <c r="A169" t="s">
         <v>172</v>
       </c>
@@ -3494,8 +4409,14 @@
       <c r="C169" s="3">
         <v>43920</v>
       </c>
-    </row>
-    <row r="170" spans="1:3">
+      <c r="D169" t="s">
+        <v>346</v>
+      </c>
+      <c r="E169" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
       <c r="A170" t="s">
         <v>173</v>
       </c>
@@ -3505,8 +4426,14 @@
       <c r="C170" s="3">
         <v>43920</v>
       </c>
-    </row>
-    <row r="171" spans="1:3">
+      <c r="D170" t="s">
+        <v>346</v>
+      </c>
+      <c r="E170" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
       <c r="A171" t="s">
         <v>174</v>
       </c>
@@ -3516,8 +4443,14 @@
       <c r="C171" s="3">
         <v>43920</v>
       </c>
-    </row>
-    <row r="172" spans="1:3">
+      <c r="D171" t="s">
+        <v>346</v>
+      </c>
+      <c r="E171" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
       <c r="A172" t="s">
         <v>175</v>
       </c>
@@ -3526,6 +4459,12 @@
       </c>
       <c r="C172" s="3">
         <v>43914</v>
+      </c>
+      <c r="D172" t="s">
+        <v>346</v>
+      </c>
+      <c r="E172" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>
